--- a/常用食材.xlsx
+++ b/常用食材.xlsx
@@ -470,7 +470,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E9" sqref="A9:E9"/>
+      <selection activeCell="E11" sqref="A11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -641,7 +641,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">

--- a/常用食材.xlsx
+++ b/常用食材.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>P</t>
   </si>
@@ -86,6 +86,14 @@
   </si>
   <si>
     <t>7 雞排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全家腿條</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全家雞胗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E11" sqref="A11:E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F15" sqref="A15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -490,10 +498,9 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -524,7 +531,7 @@
       <c r="D3" s="1">
         <v>1.33</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>70</v>
       </c>
     </row>
@@ -541,7 +548,7 @@
       <c r="D4" s="1">
         <v>6.4</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>16</v>
       </c>
     </row>
@@ -558,7 +565,7 @@
       <c r="D5" s="1">
         <v>26.8</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>14</v>
       </c>
     </row>
@@ -575,7 +582,7 @@
       <c r="D6" s="1">
         <v>6.6</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>25</v>
       </c>
     </row>
@@ -606,7 +613,7 @@
       <c r="D9" s="1">
         <v>16.5</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>28</v>
       </c>
     </row>
@@ -623,8 +630,8 @@
       <c r="D10" s="1">
         <v>14.5</v>
       </c>
-      <c r="E10" s="1">
-        <v>25</v>
+      <c r="F10" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -640,7 +647,7 @@
       <c r="D11" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>25</v>
       </c>
     </row>
@@ -657,7 +664,7 @@
       <c r="D12" s="1">
         <v>17.100000000000001</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>38</v>
       </c>
     </row>
@@ -674,58 +681,92 @@
       <c r="D13" s="1">
         <v>10.8</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
-        <v>28</v>
+        <v>11.6</v>
       </c>
       <c r="C14" s="1">
-        <v>25.3</v>
+        <v>13.5</v>
       </c>
       <c r="D14" s="1">
-        <v>20.5</v>
-      </c>
-      <c r="E14" s="1">
-        <v>48</v>
+        <v>17.5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
-        <v>21.6</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1">
-        <v>16.3</v>
-      </c>
-      <c r="E15" s="1">
+        <v>22</v>
+      </c>
+      <c r="F15" s="1">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>21.6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>16.3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B18" s="1">
         <v>15.6</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C18" s="1">
         <v>54.8</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D18" s="1">
         <v>2</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F18" s="1">
         <v>45</v>
       </c>
     </row>

--- a/常用食材.xlsx
+++ b/常用食材.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>P</t>
   </si>
@@ -94,6 +94,10 @@
   </si>
   <si>
     <t>全家雞胗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全家雞球</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F15" sqref="A15:F15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -653,16 +657,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
-        <v>19.3</v>
+        <v>12.6</v>
       </c>
       <c r="C12" s="1">
-        <v>3.5</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>17.100000000000001</v>
+        <v>13.8</v>
       </c>
       <c r="F12" s="1">
         <v>38</v>
@@ -670,16 +674,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1">
-        <v>19.8</v>
+        <v>19.3</v>
       </c>
       <c r="C13" s="1">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D13" s="1">
-        <v>10.8</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F13" s="1">
         <v>38</v>
@@ -687,16 +691,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1">
-        <v>11.6</v>
+        <v>19.8</v>
       </c>
       <c r="C14" s="1">
-        <v>13.5</v>
+        <v>2.9</v>
       </c>
       <c r="D14" s="1">
-        <v>17.5</v>
+        <v>10.8</v>
       </c>
       <c r="F14" s="1">
         <v>38</v>
@@ -704,16 +708,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1">
-        <v>18</v>
+        <v>11.6</v>
       </c>
       <c r="C15" s="1">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="D15" s="1">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="F15" s="1">
         <v>38</v>
@@ -721,52 +725,69 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
-        <v>25.3</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1">
-        <v>20.5</v>
+        <v>22</v>
       </c>
       <c r="F16" s="1">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1">
-        <v>21.6</v>
+        <v>25.3</v>
       </c>
       <c r="D17" s="1">
-        <v>16.3</v>
+        <v>20.5</v>
       </c>
       <c r="F17" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>21.6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>16.3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="1">
         <v>15.6</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>54.8</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="1">
         <v>2</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F19" s="1">
         <v>45</v>
       </c>
     </row>

--- a/常用食材.xlsx
+++ b/常用食材.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>P</t>
   </si>
@@ -98,6 +98,10 @@
   </si>
   <si>
     <t>全家雞球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大蒜麵包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A9" sqref="A9:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -606,84 +610,81 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
-        <v>5.8</v>
+        <v>2.35</v>
       </c>
       <c r="C9" s="1">
-        <v>15.4</v>
+        <v>14.8</v>
       </c>
       <c r="D9" s="1">
-        <v>16.5</v>
-      </c>
-      <c r="F9" s="1">
-        <v>28</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
-        <v>4.0999999999999996</v>
+        <v>5.8</v>
       </c>
       <c r="C10" s="1">
-        <v>23.7</v>
+        <v>15.4</v>
       </c>
       <c r="D10" s="1">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="F10" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C11" s="1">
-        <v>30.5</v>
+        <v>23.7</v>
       </c>
       <c r="D11" s="1">
-        <v>17.600000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="F11" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
-        <v>12.6</v>
+        <v>3.9</v>
       </c>
       <c r="C12" s="1">
-        <v>16.100000000000001</v>
+        <v>30.5</v>
       </c>
       <c r="D12" s="1">
-        <v>13.8</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F12" s="1">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1">
-        <v>19.3</v>
+        <v>12.6</v>
       </c>
       <c r="C13" s="1">
-        <v>3.5</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>17.100000000000001</v>
+        <v>13.8</v>
       </c>
       <c r="F13" s="1">
         <v>38</v>
@@ -691,16 +692,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>19.8</v>
+        <v>19.3</v>
       </c>
       <c r="C14" s="1">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D14" s="1">
-        <v>10.8</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F14" s="1">
         <v>38</v>
@@ -708,16 +709,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1">
-        <v>11.6</v>
+        <v>19.8</v>
       </c>
       <c r="C15" s="1">
-        <v>13.5</v>
+        <v>2.9</v>
       </c>
       <c r="D15" s="1">
-        <v>17.5</v>
+        <v>10.8</v>
       </c>
       <c r="F15" s="1">
         <v>38</v>
@@ -725,16 +726,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
-        <v>18</v>
+        <v>11.6</v>
       </c>
       <c r="C16" s="1">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="D16" s="1">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="F16" s="1">
         <v>38</v>
@@ -742,52 +743,69 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>25.3</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1">
-        <v>20.5</v>
+        <v>22</v>
       </c>
       <c r="F17" s="1">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
-        <v>21.6</v>
+        <v>25.3</v>
       </c>
       <c r="D18" s="1">
-        <v>16.3</v>
+        <v>20.5</v>
       </c>
       <c r="F18" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>21.6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>16.3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="1">
         <v>15.6</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="1">
         <v>54.8</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D20" s="1">
         <v>2</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F20" s="1">
         <v>45</v>
       </c>
     </row>

--- a/常用食材.xlsx
+++ b/常用食材.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>P</t>
   </si>
@@ -102,6 +102,10 @@
   </si>
   <si>
     <t>大蒜麵包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全家 飯糰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -608,100 +612,100 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2.35</v>
-      </c>
-      <c r="C9" s="1">
-        <v>14.8</v>
-      </c>
-      <c r="D9" s="1">
-        <v>11.4</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44.8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
-        <v>5.8</v>
+        <v>2.35</v>
       </c>
       <c r="C10" s="1">
-        <v>15.4</v>
+        <v>14.8</v>
       </c>
       <c r="D10" s="1">
-        <v>16.5</v>
-      </c>
-      <c r="F10" s="1">
-        <v>28</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1">
-        <v>4.0999999999999996</v>
+        <v>5.8</v>
       </c>
       <c r="C11" s="1">
-        <v>23.7</v>
+        <v>15.4</v>
       </c>
       <c r="D11" s="1">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="F11" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C12" s="1">
-        <v>30.5</v>
+        <v>23.7</v>
       </c>
       <c r="D12" s="1">
-        <v>17.600000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="F12" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>12.6</v>
+        <v>3.9</v>
       </c>
       <c r="C13" s="1">
-        <v>16.100000000000001</v>
+        <v>30.5</v>
       </c>
       <c r="D13" s="1">
-        <v>13.8</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F13" s="1">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
-        <v>19.3</v>
+        <v>12.6</v>
       </c>
       <c r="C14" s="1">
-        <v>3.5</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>17.100000000000001</v>
+        <v>13.8</v>
       </c>
       <c r="F14" s="1">
         <v>38</v>
@@ -709,16 +713,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1">
-        <v>19.8</v>
+        <v>19.3</v>
       </c>
       <c r="C15" s="1">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D15" s="1">
-        <v>10.8</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F15" s="1">
         <v>38</v>
@@ -726,16 +730,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
-        <v>11.6</v>
+        <v>19.8</v>
       </c>
       <c r="C16" s="1">
-        <v>13.5</v>
+        <v>2.9</v>
       </c>
       <c r="D16" s="1">
-        <v>17.5</v>
+        <v>10.8</v>
       </c>
       <c r="F16" s="1">
         <v>38</v>
@@ -743,16 +747,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
-        <v>18</v>
+        <v>11.6</v>
       </c>
       <c r="C17" s="1">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="D17" s="1">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="F17" s="1">
         <v>38</v>
@@ -760,52 +764,69 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
-        <v>25.3</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1">
-        <v>20.5</v>
+        <v>22</v>
       </c>
       <c r="F18" s="1">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1">
-        <v>21.6</v>
+        <v>25.3</v>
       </c>
       <c r="D19" s="1">
-        <v>16.3</v>
+        <v>20.5</v>
       </c>
       <c r="F19" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>21.6</v>
+      </c>
+      <c r="D20" s="1">
+        <v>16.3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="1">
         <v>15.6</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <v>54.8</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F21" s="1">
         <v>45</v>
       </c>
     </row>

--- a/常用食材.xlsx
+++ b/常用食材.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>P</t>
   </si>
@@ -106,6 +106,10 @@
   </si>
   <si>
     <t>全家 飯糰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘋果派</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:F21"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -645,84 +649,84 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="C11" s="1">
-        <v>15.4</v>
+        <v>24.8</v>
       </c>
       <c r="D11" s="1">
-        <v>16.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F11" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>4.0999999999999996</v>
+        <v>5.8</v>
       </c>
       <c r="C12" s="1">
-        <v>23.7</v>
+        <v>15.4</v>
       </c>
       <c r="D12" s="1">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="F12" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C13" s="1">
-        <v>30.5</v>
+        <v>23.7</v>
       </c>
       <c r="D13" s="1">
-        <v>17.600000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="F13" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>12.6</v>
+        <v>3.9</v>
       </c>
       <c r="C14" s="1">
-        <v>16.100000000000001</v>
+        <v>30.5</v>
       </c>
       <c r="D14" s="1">
-        <v>13.8</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F14" s="1">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
-        <v>19.3</v>
+        <v>12.6</v>
       </c>
       <c r="C15" s="1">
-        <v>3.5</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>17.100000000000001</v>
+        <v>13.8</v>
       </c>
       <c r="F15" s="1">
         <v>38</v>
@@ -730,16 +734,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1">
-        <v>19.8</v>
+        <v>19.3</v>
       </c>
       <c r="C16" s="1">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D16" s="1">
-        <v>10.8</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F16" s="1">
         <v>38</v>
@@ -747,16 +751,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1">
-        <v>11.6</v>
+        <v>19.8</v>
       </c>
       <c r="C17" s="1">
-        <v>13.5</v>
+        <v>2.9</v>
       </c>
       <c r="D17" s="1">
-        <v>17.5</v>
+        <v>10.8</v>
       </c>
       <c r="F17" s="1">
         <v>38</v>
@@ -764,16 +768,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>18</v>
+        <v>11.6</v>
       </c>
       <c r="C18" s="1">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="D18" s="1">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="F18" s="1">
         <v>38</v>
@@ -781,52 +785,69 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1">
-        <v>25.3</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1">
-        <v>20.5</v>
+        <v>22</v>
       </c>
       <c r="F19" s="1">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1">
-        <v>21.6</v>
+        <v>25.3</v>
       </c>
       <c r="D20" s="1">
-        <v>16.3</v>
+        <v>20.5</v>
       </c>
       <c r="F20" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>21.6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>16.3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>15.6</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <v>54.8</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D22" s="1">
         <v>2</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F22" s="1">
         <v>45</v>
       </c>
     </row>

--- a/常用食材.xlsx
+++ b/常用食材.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>P</t>
   </si>
@@ -110,6 +110,28 @@
   </si>
   <si>
     <t>蘋果派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>燕麥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 50g</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,6 +170,12 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -171,7 +199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -186,6 +214,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:F11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -633,117 +664,114 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2.35</v>
-      </c>
-      <c r="C10" s="1">
-        <v>14.8</v>
-      </c>
-      <c r="D10" s="1">
-        <v>11.4</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>33</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
-        <v>3.6</v>
+        <v>2.35</v>
       </c>
       <c r="C11" s="1">
-        <v>24.8</v>
+        <v>14.8</v>
       </c>
       <c r="D11" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F11" s="1">
-        <v>25</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="C12" s="1">
-        <v>15.4</v>
+        <v>24.8</v>
       </c>
       <c r="D12" s="1">
-        <v>16.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F12" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1">
-        <v>4.0999999999999996</v>
+        <v>5.8</v>
       </c>
       <c r="C13" s="1">
-        <v>23.7</v>
+        <v>15.4</v>
       </c>
       <c r="D13" s="1">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="F13" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C14" s="1">
-        <v>30.5</v>
+        <v>23.7</v>
       </c>
       <c r="D14" s="1">
-        <v>17.600000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="F14" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>12.6</v>
+        <v>3.9</v>
       </c>
       <c r="C15" s="1">
-        <v>16.100000000000001</v>
+        <v>30.5</v>
       </c>
       <c r="D15" s="1">
-        <v>13.8</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F15" s="1">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>19.3</v>
+        <v>12.6</v>
       </c>
       <c r="C16" s="1">
-        <v>3.5</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>17.100000000000001</v>
+        <v>13.8</v>
       </c>
       <c r="F16" s="1">
         <v>38</v>
@@ -751,16 +779,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1">
-        <v>19.8</v>
+        <v>19.3</v>
       </c>
       <c r="C17" s="1">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D17" s="1">
-        <v>10.8</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F17" s="1">
         <v>38</v>
@@ -768,16 +796,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1">
-        <v>11.6</v>
+        <v>19.8</v>
       </c>
       <c r="C18" s="1">
-        <v>13.5</v>
+        <v>2.9</v>
       </c>
       <c r="D18" s="1">
-        <v>17.5</v>
+        <v>10.8</v>
       </c>
       <c r="F18" s="1">
         <v>38</v>
@@ -785,16 +813,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>18</v>
+        <v>11.6</v>
       </c>
       <c r="C19" s="1">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="D19" s="1">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="F19" s="1">
         <v>38</v>
@@ -802,52 +830,69 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
-        <v>25.3</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1">
-        <v>20.5</v>
+        <v>22</v>
       </c>
       <c r="F20" s="1">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1">
-        <v>21.6</v>
+        <v>25.3</v>
       </c>
       <c r="D21" s="1">
-        <v>16.3</v>
+        <v>20.5</v>
       </c>
       <c r="F21" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>21.6</v>
+      </c>
+      <c r="D22" s="1">
+        <v>16.3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
         <v>15.6</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <v>54.8</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D23" s="1">
         <v>2</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F23" s="1">
         <v>45</v>
       </c>
     </row>

--- a/常用食材.xlsx
+++ b/常用食材.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>P</t>
   </si>
@@ -132,6 +132,10 @@
       </rPr>
       <t xml:space="preserve"> 50g</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科學麵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -894,6 +898,20 @@
       </c>
       <c r="F23" s="1">
         <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C24" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="D24" s="1">
+        <v>8.3000000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/常用食材.xlsx
+++ b/常用食材.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>P</t>
   </si>
@@ -136,6 +136,10 @@
   </si>
   <si>
     <t>科學麵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全家雞塊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:D24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -783,16 +787,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1">
-        <v>19.3</v>
+        <v>14.8</v>
       </c>
       <c r="C17" s="1">
-        <v>3.5</v>
+        <v>9.6</v>
       </c>
       <c r="D17" s="1">
-        <v>17.100000000000001</v>
+        <v>13.1</v>
       </c>
       <c r="F17" s="1">
         <v>38</v>
@@ -800,16 +804,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1">
-        <v>19.8</v>
+        <v>19.3</v>
       </c>
       <c r="C18" s="1">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D18" s="1">
-        <v>10.8</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F18" s="1">
         <v>38</v>
@@ -817,16 +821,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1">
-        <v>11.6</v>
+        <v>19.8</v>
       </c>
       <c r="C19" s="1">
-        <v>13.5</v>
+        <v>2.9</v>
       </c>
       <c r="D19" s="1">
-        <v>17.5</v>
+        <v>10.8</v>
       </c>
       <c r="F19" s="1">
         <v>38</v>
@@ -834,16 +838,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>18</v>
+        <v>11.6</v>
       </c>
       <c r="C20" s="1">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="D20" s="1">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="F20" s="1">
         <v>38</v>
@@ -851,66 +855,83 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1">
-        <v>25.3</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1">
-        <v>20.5</v>
+        <v>22</v>
       </c>
       <c r="F21" s="1">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1">
-        <v>21.6</v>
+        <v>25.3</v>
       </c>
       <c r="D22" s="1">
-        <v>16.3</v>
+        <v>20.5</v>
       </c>
       <c r="F22" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B23" s="1">
-        <v>15.6</v>
+        <v>14.5</v>
       </c>
       <c r="C23" s="1">
-        <v>54.8</v>
+        <v>21.6</v>
       </c>
       <c r="D23" s="1">
-        <v>2</v>
+        <v>16.3</v>
       </c>
       <c r="F23" s="1">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1">
+        <v>15.6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <v>24.6</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D25" s="1">
         <v>8.3000000000000007</v>
       </c>
     </row>

--- a/常用食材.xlsx
+++ b/常用食材.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>P</t>
   </si>
@@ -140,6 +140,10 @@
   </si>
   <si>
     <t>全家雞塊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 海鮮丸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:F17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -889,16 +893,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1">
-        <v>14.5</v>
+        <v>13.9</v>
       </c>
       <c r="C23" s="1">
-        <v>21.6</v>
+        <v>10.3</v>
       </c>
       <c r="D23" s="1">
-        <v>16.3</v>
+        <v>9.1</v>
       </c>
       <c r="F23" s="1">
         <v>38</v>
@@ -906,32 +910,49 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B24" s="1">
-        <v>15.6</v>
+        <v>14.5</v>
       </c>
       <c r="C24" s="1">
-        <v>54.8</v>
+        <v>21.6</v>
       </c>
       <c r="D24" s="1">
-        <v>2</v>
+        <v>16.3</v>
       </c>
       <c r="F24" s="1">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1">
+        <v>15.6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <v>24.6</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D26" s="1">
         <v>8.3000000000000007</v>
       </c>
     </row>

--- a/常用食材.xlsx
+++ b/常用食材.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>P</t>
   </si>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>7 海鮮丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全家三明治</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -774,33 +778,33 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1">
-        <v>12.6</v>
+        <v>8.5</v>
       </c>
       <c r="C16" s="1">
-        <v>16.100000000000001</v>
+        <v>28.3</v>
       </c>
       <c r="D16" s="1">
-        <v>13.8</v>
+        <v>11.5</v>
       </c>
       <c r="F16" s="1">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
-        <v>14.8</v>
+        <v>12.6</v>
       </c>
       <c r="C17" s="1">
-        <v>9.6</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>13.1</v>
+        <v>13.8</v>
       </c>
       <c r="F17" s="1">
         <v>38</v>
@@ -808,16 +812,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1">
-        <v>19.3</v>
+        <v>14.8</v>
       </c>
       <c r="C18" s="1">
-        <v>3.5</v>
+        <v>9.6</v>
       </c>
       <c r="D18" s="1">
-        <v>17.100000000000001</v>
+        <v>13.1</v>
       </c>
       <c r="F18" s="1">
         <v>38</v>
@@ -825,16 +829,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1">
-        <v>19.8</v>
+        <v>19.3</v>
       </c>
       <c r="C19" s="1">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D19" s="1">
-        <v>10.8</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F19" s="1">
         <v>38</v>
@@ -842,16 +846,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1">
-        <v>11.6</v>
+        <v>19.8</v>
       </c>
       <c r="C20" s="1">
-        <v>13.5</v>
+        <v>2.9</v>
       </c>
       <c r="D20" s="1">
-        <v>17.5</v>
+        <v>10.8</v>
       </c>
       <c r="F20" s="1">
         <v>38</v>
@@ -859,16 +863,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1">
-        <v>18</v>
+        <v>11.6</v>
       </c>
       <c r="C21" s="1">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="D21" s="1">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="F21" s="1">
         <v>38</v>
@@ -876,50 +880,50 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1">
-        <v>25.3</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1">
-        <v>20.5</v>
+        <v>22</v>
       </c>
       <c r="F22" s="1">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1">
-        <v>13.9</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1">
-        <v>10.3</v>
+        <v>25.3</v>
       </c>
       <c r="D23" s="1">
-        <v>9.1</v>
+        <v>20.5</v>
       </c>
       <c r="F23" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1">
-        <v>14.5</v>
+        <v>13.9</v>
       </c>
       <c r="C24" s="1">
-        <v>21.6</v>
+        <v>10.3</v>
       </c>
       <c r="D24" s="1">
-        <v>16.3</v>
+        <v>9.1</v>
       </c>
       <c r="F24" s="1">
         <v>38</v>
@@ -927,32 +931,49 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1">
-        <v>15.6</v>
+        <v>14.5</v>
       </c>
       <c r="C25" s="1">
-        <v>54.8</v>
+        <v>21.6</v>
       </c>
       <c r="D25" s="1">
-        <v>2</v>
+        <v>16.3</v>
       </c>
       <c r="F25" s="1">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="1">
+        <v>15.6</v>
+      </c>
+      <c r="C26" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B27" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C27" s="1">
         <v>24.6</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D27" s="1">
         <v>8.3000000000000007</v>
       </c>
     </row>

--- a/常用食材.xlsx
+++ b/常用食材.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>P</t>
   </si>
@@ -148,6 +148,10 @@
   </si>
   <si>
     <t>全家三明治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costco火腿100g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:F16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -975,6 +979,23 @@
       </c>
       <c r="D27" s="1">
         <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="F29" s="1">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/常用食材.xlsx
+++ b/常用食材.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>P</t>
   </si>
@@ -152,6 +152,10 @@
   </si>
   <si>
     <t>Costco火腿100g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞穗全脂牛奶375ml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -671,9 +675,6 @@
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1">
-        <v>11</v>
-      </c>
       <c r="C8" s="1">
         <v>44.8</v>
       </c>
@@ -698,151 +699,145 @@
         <v>3.5</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>21.6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>16.3</v>
+      </c>
+    </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1">
-        <v>2.35</v>
+        <v>11.9</v>
       </c>
       <c r="C11" s="1">
-        <v>14.8</v>
+        <v>17.8</v>
       </c>
       <c r="D11" s="1">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="C12" s="1">
-        <v>24.8</v>
-      </c>
-      <c r="D12" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F12" s="1">
-        <v>25</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1">
-        <v>5.8</v>
+        <v>2.35</v>
       </c>
       <c r="C13" s="1">
-        <v>15.4</v>
+        <v>14.8</v>
       </c>
       <c r="D13" s="1">
-        <v>16.5</v>
-      </c>
-      <c r="F13" s="1">
-        <v>28</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
-        <v>4.0999999999999996</v>
+        <v>3.6</v>
       </c>
       <c r="C14" s="1">
-        <v>23.7</v>
+        <v>24.8</v>
       </c>
       <c r="D14" s="1">
-        <v>14.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F14" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>3.9</v>
+        <v>5.8</v>
       </c>
       <c r="C15" s="1">
-        <v>30.5</v>
+        <v>15.4</v>
       </c>
       <c r="D15" s="1">
-        <v>17.600000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="F15" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1">
-        <v>8.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C16" s="1">
-        <v>28.3</v>
+        <v>23.7</v>
       </c>
       <c r="D16" s="1">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="F16" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1">
-        <v>12.6</v>
+        <v>3.9</v>
       </c>
       <c r="C17" s="1">
-        <v>16.100000000000001</v>
+        <v>30.5</v>
       </c>
       <c r="D17" s="1">
-        <v>13.8</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F17" s="1">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1">
-        <v>14.8</v>
+        <v>8.5</v>
       </c>
       <c r="C18" s="1">
-        <v>9.6</v>
+        <v>28.3</v>
       </c>
       <c r="D18" s="1">
-        <v>13.1</v>
+        <v>11.5</v>
       </c>
       <c r="F18" s="1">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
-        <v>19.3</v>
+        <v>12.6</v>
       </c>
       <c r="C19" s="1">
-        <v>3.5</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>17.100000000000001</v>
+        <v>13.8</v>
       </c>
       <c r="F19" s="1">
         <v>38</v>
@@ -850,16 +845,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1">
-        <v>19.8</v>
+        <v>14.8</v>
       </c>
       <c r="C20" s="1">
-        <v>2.9</v>
+        <v>9.6</v>
       </c>
       <c r="D20" s="1">
-        <v>10.8</v>
+        <v>13.1</v>
       </c>
       <c r="F20" s="1">
         <v>38</v>
@@ -867,16 +862,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1">
-        <v>11.6</v>
+        <v>19.3</v>
       </c>
       <c r="C21" s="1">
-        <v>13.5</v>
+        <v>3.5</v>
       </c>
       <c r="D21" s="1">
-        <v>17.5</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F21" s="1">
         <v>38</v>
@@ -884,16 +879,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1">
-        <v>18</v>
+        <v>19.8</v>
       </c>
       <c r="C22" s="1">
-        <v>9</v>
+        <v>2.9</v>
       </c>
       <c r="D22" s="1">
-        <v>22</v>
+        <v>10.8</v>
       </c>
       <c r="F22" s="1">
         <v>38</v>
@@ -901,33 +896,33 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1">
-        <v>28</v>
+        <v>11.6</v>
       </c>
       <c r="C23" s="1">
-        <v>25.3</v>
+        <v>13.5</v>
       </c>
       <c r="D23" s="1">
-        <v>20.5</v>
+        <v>17.5</v>
       </c>
       <c r="F23" s="1">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1">
-        <v>13.9</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1">
-        <v>10.3</v>
+        <v>9</v>
       </c>
       <c r="D24" s="1">
-        <v>9.1</v>
+        <v>22</v>
       </c>
       <c r="F24" s="1">
         <v>38</v>
@@ -935,66 +930,100 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1">
-        <v>21.6</v>
+        <v>25.3</v>
       </c>
       <c r="D25" s="1">
-        <v>16.3</v>
+        <v>20.5</v>
       </c>
       <c r="F25" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1">
-        <v>15.6</v>
+        <v>13.9</v>
       </c>
       <c r="C26" s="1">
-        <v>54.8</v>
+        <v>10.3</v>
       </c>
       <c r="D26" s="1">
-        <v>2</v>
+        <v>9.1</v>
       </c>
       <c r="F26" s="1">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B27" s="1">
-        <v>4.5999999999999996</v>
+        <v>14.5</v>
       </c>
       <c r="C27" s="1">
-        <v>24.6</v>
+        <v>21.6</v>
       </c>
       <c r="D27" s="1">
-        <v>8.3000000000000007</v>
+        <v>16.3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1">
+        <v>15.6</v>
+      </c>
+      <c r="C28" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C29" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B31" s="1">
         <v>16.899999999999999</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C31" s="1">
         <v>4</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D31" s="1">
         <v>5.7</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F31" s="1">
         <v>20</v>
       </c>
     </row>
